--- a/doc/examples/buffer/make-to-order.xlsx
+++ b/doc/examples/buffer/make-to-order.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\frepple-community\doc\user-guide\examples\buffer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\johan\workspace\frepple-community\doc\examples\buffer\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2094D104-39B8-4299-9DB3-06F65C866822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="6885" activeTab="1"/>
+    <workbookView xWindow="915" yWindow="-15240" windowWidth="27885" windowHeight="12225" tabRatio="804" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sales order" sheetId="1" r:id="rId1"/>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="120">
   <si>
     <t>Name</t>
   </si>
@@ -322,15 +323,9 @@
     <t>Value</t>
   </si>
   <si>
-    <t>allowsplits</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
-    <t>Controls whether a sales order or forecast can be split across multiple manufacturing orders during planning. Default: true</t>
-  </si>
-  <si>
     <t>currency</t>
   </si>
   <si>
@@ -376,12 +371,6 @@
     <t>The number of days the solver should wait for a confirmed replenishment before generating a proposed order. Default:999 (wait indefinitely)</t>
   </si>
   <si>
-    <t>plan.calendar</t>
-  </si>
-  <si>
-    <t>Specifies a calendar with dates to which the plan is aligned</t>
-  </si>
-  <si>
     <t>plan.loglevel</t>
   </si>
   <si>
@@ -398,15 +387,6 @@
   </si>
   <si>
     <t>Specifies a minimum delivery date increment (in seconds) used by the planning algorithm in its search. Default: 3600</t>
-  </si>
-  <si>
-    <t>plan.planSafetyStockFirst</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>Controls whether safety stock is planned before or after the demand. Accepted values are false (default) and true</t>
   </si>
   <si>
     <t>plan.rotateResources</t>
@@ -430,11 +410,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,9 +465,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="headerstyle" xfId="1"/>
+    <cellStyle name="headerstyle" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="readlonlyheaderstyle" xfId="2"/>
+    <cellStyle name="readlonlyheaderstyle" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -786,23 +766,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -828,7 +808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -851,7 +831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -874,7 +854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -900,7 +880,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -926,7 +906,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -952,7 +932,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -978,7 +958,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1001,7 +981,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1024,7 +1004,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1050,7 +1030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -1076,7 +1056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1102,7 +1082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -1129,28 +1109,28 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1048576"/>
+  <autoFilter ref="A1:H1048576" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.9296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>89</v>
       </c>
@@ -1164,7 +1144,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -1178,7 +1158,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -1192,7 +1172,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1206,7 +1186,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1220,7 +1200,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -1234,7 +1214,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -1248,7 +1228,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -1262,7 +1242,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1276,7 +1256,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1290,7 +1270,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -1304,7 +1284,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -1318,7 +1298,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -1332,7 +1312,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1346,7 +1326,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1360,7 +1340,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -1374,7 +1354,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -1388,7 +1368,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -1402,7 +1382,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1416,7 +1396,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1430,7 +1410,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>67</v>
       </c>
@@ -1444,7 +1424,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>68</v>
       </c>
@@ -1458,7 +1438,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>68</v>
       </c>
@@ -1472,7 +1452,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1486,7 +1466,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1500,7 +1480,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>73</v>
       </c>
@@ -1515,26 +1495,26 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1048576"/>
+  <autoFilter ref="A1:D1048576" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="13.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>89</v>
       </c>
@@ -1545,7 +1525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -1556,7 +1536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1567,7 +1547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1578,7 +1558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -1589,7 +1569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1600,7 +1580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -1611,7 +1591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -1622,7 +1602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1633,7 +1613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -1644,7 +1624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>56</v>
       </c>
@@ -1655,7 +1635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1666,7 +1646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -1677,7 +1657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -1688,7 +1668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1699,7 +1679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -1711,27 +1691,27 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1048576"/>
+  <autoFilter ref="A1:C1048576" xr:uid="{00000000-0009-0000-0000-00000A000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E1" sqref="D1:E1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="136.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="136.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1742,168 +1722,138 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" t="s">
         <v>92</v>
       </c>
-      <c r="B2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9" t="s">
-        <v>113</v>
-      </c>
       <c r="C9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>118</v>
       </c>
       <c r="B11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" t="s">
         <v>119</v>
       </c>
-      <c r="C11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>121</v>
-      </c>
-      <c r="B12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>123</v>
-      </c>
-      <c r="B13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>125</v>
-      </c>
-      <c r="B14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" t="s">
-        <v>126</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1048576"/>
+  <autoFilter ref="A1:C1048573" xr:uid="{00000000-0009-0000-0000-00000B000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.9296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.265625" customWidth="1"/>
-    <col min="4" max="4" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.21875" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1917,7 +1867,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -1928,7 +1878,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -1939,7 +1889,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -1950,7 +1900,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -1961,7 +1911,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -1972,7 +1922,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -1983,7 +1933,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1994,7 +1944,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -2005,7 +1955,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -2016,7 +1966,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2030,7 +1980,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -2041,7 +1991,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -2052,7 +2002,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -2063,7 +2013,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -2074,7 +2024,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -2085,7 +2035,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -2099,7 +2049,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -2110,7 +2060,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -2121,7 +2071,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -2132,7 +2082,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -2143,7 +2093,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -2154,7 +2104,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2168,7 +2118,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -2179,7 +2129,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -2190,7 +2140,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -2201,7 +2151,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -2212,7 +2162,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -2223,7 +2173,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -2237,7 +2187,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -2248,7 +2198,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>68</v>
       </c>
@@ -2259,7 +2209,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -2270,7 +2220,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -2281,7 +2231,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>71</v>
       </c>
@@ -2292,7 +2242,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -2306,7 +2256,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>73</v>
       </c>
@@ -2318,103 +2268,103 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1048575"/>
+  <autoFilter ref="A1:D1048575" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A1048576"/>
+  <autoFilter ref="A1:A1048576" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A1048576"/>
+  <autoFilter ref="A1:A1048576" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -2431,7 +2381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -2448,7 +2398,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2459,7 +2409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -2473,7 +2423,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -2488,28 +2438,28 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E5"/>
+  <autoFilter ref="A1:E5" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.9296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2523,7 +2473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -2537,7 +2487,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2551,7 +2501,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -2565,7 +2515,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -2579,7 +2529,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2593,7 +2543,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -2607,7 +2557,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>56</v>
       </c>
@@ -2621,7 +2571,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2635,7 +2585,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -2649,7 +2599,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -2663,7 +2613,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -2677,7 +2627,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -2691,7 +2641,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>68</v>
       </c>
@@ -2705,7 +2655,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -2719,7 +2669,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -2734,58 +2684,58 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1048576"/>
+  <autoFilter ref="A1:D1048576" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A1048576"/>
+  <autoFilter ref="A1:A1048576" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.9296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.06640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2802,7 +2752,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -2816,7 +2766,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -2830,7 +2780,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -2844,7 +2794,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -2858,7 +2808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -2872,7 +2822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -2886,7 +2836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -2900,7 +2850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -2914,7 +2864,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -2928,7 +2878,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -2942,7 +2892,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -2956,7 +2906,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -2970,7 +2920,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -2984,7 +2934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -2998,7 +2948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -3013,31 +2963,31 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1048576"/>
+  <autoFilter ref="A1:E1048576" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.46484375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.06640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3060,7 +3010,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -3080,7 +3030,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -3100,7 +3050,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -3120,7 +3070,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -3140,7 +3090,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -3160,7 +3110,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -3180,7 +3130,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>56</v>
       </c>
@@ -3200,7 +3150,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -3220,7 +3170,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -3240,7 +3190,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -3260,7 +3210,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -3280,7 +3230,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -3300,7 +3250,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>68</v>
       </c>
@@ -3320,7 +3270,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -3340,7 +3290,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -3361,7 +3311,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1048576"/>
+  <autoFilter ref="A1:G1048576" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>